--- a/simple2.xlsx
+++ b/simple2.xlsx
@@ -23101,7 +23101,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D458"/>
+  <dimension ref="A1:D461"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -31237,6 +31237,60 @@
       </c>
       <c r="D458" s="5">
         <v>43590.59908564815</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="n">
+        <v>458</v>
+      </c>
+      <c r="B459" s="3" t="inlineStr">
+        <is>
+          <t>lizeth.clfc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C459" s="3" t="inlineStr">
+        <is>
+          <t>Eliminó todos los registros de todas las bases - Alumno</t>
+        </is>
+      </c>
+      <c r="D459" s="5">
+        <v>43590.623194444444</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="n">
+        <v>459</v>
+      </c>
+      <c r="B460" s="3" t="inlineStr">
+        <is>
+          <t>lizeth.clfc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C460" s="3" t="inlineStr">
+        <is>
+          <t>Eliminó registró - Grupo ID: 4</t>
+        </is>
+      </c>
+      <c r="D460" s="5">
+        <v>43590.62322916667</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="n">
+        <v>460</v>
+      </c>
+      <c r="B461" s="3" t="inlineStr">
+        <is>
+          <t>lizeth.clfc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C461" s="3" t="inlineStr">
+        <is>
+          <t>Eliminó errores de las tablas de todos los sistemas</t>
+        </is>
+      </c>
+      <c r="D461" s="5">
+        <v>43590.62326388889</v>
       </c>
     </row>
   </sheetData>
